--- a/decArgo_doc/decoder_versions/_argo_tools_histo_soft.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_tools_histo_soft.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Description</t>
   </si>
@@ -55,15 +55,9 @@
     <t>Code for the nc_update_dm_mono_profile_to_V3_1, nc_convert_mono_profile_argos_to_V3_1 and nc_convert_mono_profile_iridium_to_V3_1 tools</t>
   </si>
   <si>
-    <t>Coriolis Format Convertion</t>
-  </si>
-  <si>
     <t>COUF</t>
   </si>
   <si>
-    <t>Coriolis Update Format</t>
-  </si>
-  <si>
     <t>Code for nc_update_argo_format_v_x_y tools</t>
   </si>
   <si>
@@ -77,6 +71,21 @@
   </si>
   <si>
     <t>Code for the Matlab Glider decoder</t>
+  </si>
+  <si>
+    <t>CODP</t>
+  </si>
+  <si>
+    <t>COriolis Format Convertion</t>
+  </si>
+  <si>
+    <t>COriolis Update Format</t>
+  </si>
+  <si>
+    <t>COriolis Duplicate Pres axis</t>
+  </si>
+  <si>
+    <t>Code for nc_duplicate_pres_axis tool</t>
   </si>
 </sst>
 </file>
@@ -441,11 +450,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,13 +478,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -486,7 +495,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -516,7 +525,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
@@ -524,13 +533,24 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/decArgo_doc/decoder_versions/_argo_tools_histo_soft.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_tools_histo_soft.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="245" yWindow="109" windowWidth="14808" windowHeight="8015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Description</t>
   </si>
@@ -86,6 +86,42 @@
   </si>
   <si>
     <t>Code for nc_duplicate_pres_axis tool</t>
+  </si>
+  <si>
+    <t>COCM</t>
+  </si>
+  <si>
+    <t>COriolis Create M-PROF</t>
+  </si>
+  <si>
+    <t>COCS</t>
+  </si>
+  <si>
+    <t>COriolis Create S-PROF</t>
+  </si>
+  <si>
+    <t>Code for nc_create_synthetic_profile tool  (not used because no HISTORY section in S-PROF file format)</t>
+  </si>
+  <si>
+    <t>Code for nc_create_v2_merged_profile tool (not used because no HISTORY section in M-PROF file format)</t>
+  </si>
+  <si>
+    <t>COCD</t>
+  </si>
+  <si>
+    <t>COriolis Copy Dm and qc</t>
+  </si>
+  <si>
+    <t>Code for the nc_copy_mono_profile_dm_and_qc tool</t>
+  </si>
+  <si>
+    <t>COGD</t>
+  </si>
+  <si>
+    <t>COriolis Generated from DEP files</t>
+  </si>
+  <si>
+    <t>Code for profile files generated from DEP files (DEP files are files created for the ANDRO project)</t>
   </si>
 </sst>
 </file>
@@ -159,6 +195,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -206,7 +245,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,7 +280,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,22 +489,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="108.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="23.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="108.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -476,7 +515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -487,7 +526,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -498,7 +537,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -509,7 +548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -520,37 +559,81 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/decArgo_doc/decoder_versions/_argo_tools_histo_soft.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_tools_histo_soft.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="245" yWindow="109" windowWidth="14808" windowHeight="8015"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Description</t>
   </si>
@@ -122,12 +122,30 @@
   </si>
   <si>
     <t>Code for profile files generated from DEP files (DEP files are files created for the ANDRO project)</t>
+  </si>
+  <si>
+    <t>Code for the nc_add_do_rtqc_flags_prof_and_traj</t>
+  </si>
+  <si>
+    <t>COPQ</t>
+  </si>
+  <si>
+    <t>COriolis Parameter Qc</t>
+  </si>
+  <si>
+    <t>COSQ</t>
+  </si>
+  <si>
+    <t>COriolis Set Qc</t>
+  </si>
+  <si>
+    <t>Code for nc_set_doxy_qc_to_dm_file</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -171,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -184,6 +202,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,22 +510,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="108.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="2"/>
+    <col min="1" max="1" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="108.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -515,7 +536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -526,7 +547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -537,7 +558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -548,7 +569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -559,8 +580,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -570,7 +591,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -581,7 +602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -592,7 +613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -603,7 +624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -614,7 +635,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -625,7 +646,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
@@ -634,6 +655,28 @@
       </c>
       <c r="C12" s="4" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/decArgo_doc/decoder_versions/_argo_tools_histo_soft.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_tools_histo_soft.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Description</t>
   </si>
@@ -55,9 +55,15 @@
     <t>Code for the nc_update_dm_mono_profile_to_V3_1, nc_convert_mono_profile_argos_to_V3_1 and nc_convert_mono_profile_iridium_to_V3_1 tools</t>
   </si>
   <si>
+    <t>Coriolis Format Convertion</t>
+  </si>
+  <si>
     <t>COUF</t>
   </si>
   <si>
+    <t>Coriolis Update Format</t>
+  </si>
+  <si>
     <t>Code for nc_update_argo_format_v_x_y tools</t>
   </si>
   <si>
@@ -71,81 +77,12 @@
   </si>
   <si>
     <t>Code for the Matlab Glider decoder</t>
-  </si>
-  <si>
-    <t>CODP</t>
-  </si>
-  <si>
-    <t>COriolis Format Convertion</t>
-  </si>
-  <si>
-    <t>COriolis Update Format</t>
-  </si>
-  <si>
-    <t>COriolis Duplicate Pres axis</t>
-  </si>
-  <si>
-    <t>Code for nc_duplicate_pres_axis tool</t>
-  </si>
-  <si>
-    <t>COCM</t>
-  </si>
-  <si>
-    <t>COriolis Create M-PROF</t>
-  </si>
-  <si>
-    <t>COCS</t>
-  </si>
-  <si>
-    <t>COriolis Create S-PROF</t>
-  </si>
-  <si>
-    <t>Code for nc_create_synthetic_profile tool  (not used because no HISTORY section in S-PROF file format)</t>
-  </si>
-  <si>
-    <t>Code for nc_create_v2_merged_profile tool (not used because no HISTORY section in M-PROF file format)</t>
-  </si>
-  <si>
-    <t>COCD</t>
-  </si>
-  <si>
-    <t>COriolis Copy Dm and qc</t>
-  </si>
-  <si>
-    <t>Code for the nc_copy_mono_profile_dm_and_qc tool</t>
-  </si>
-  <si>
-    <t>COGD</t>
-  </si>
-  <si>
-    <t>COriolis Generated from DEP files</t>
-  </si>
-  <si>
-    <t>Code for profile files generated from DEP files (DEP files are files created for the ANDRO project)</t>
-  </si>
-  <si>
-    <t>Code for the nc_add_do_rtqc_flags_prof_and_traj</t>
-  </si>
-  <si>
-    <t>COPQ</t>
-  </si>
-  <si>
-    <t>COriolis Parameter Qc</t>
-  </si>
-  <si>
-    <t>COSQ</t>
-  </si>
-  <si>
-    <t>COriolis Set Qc</t>
-  </si>
-  <si>
-    <t>Code for nc_set_doxy_qc_to_dm_file</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -203,9 +140,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -215,9 +149,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -266,7 +197,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -301,7 +232,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -510,22 +441,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="108.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="23.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="108.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -536,18 +467,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -555,10 +486,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -569,7 +500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -580,103 +511,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>30</v>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
